--- a/開発体験シート（反復1)/17_開発体験シート.xlsx
+++ b/開発体験シート（反復1)/17_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115E215-6244-4A45-8024-A5D1D2F10042}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BA4E1-2F13-4EDA-9255-6D53FAF9D0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1882,13 +1882,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -2511,18 +2511,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2544,18 +2544,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/開発体験シート（反復1)/17_開発体験シート.xlsx
+++ b/開発体験シート（反復1)/17_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BA4E1-2F13-4EDA-9255-6D53FAF9D0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65039DA-5B53-43E0-B428-2A3A61D599E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,6 +2341,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2510,7 +2516,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2519,13 +2525,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2543,19 +2552,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>